--- a/TESTDATA/TestData.xlsx
+++ b/TESTDATA/TestData.xlsx
@@ -4,30 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17595" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>agjfcs</t>
-  </si>
-  <si>
-    <t>aj;chv</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -36,16 +25,87 @@
   </si>
   <si>
     <t>aaa</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Uname</t>
+  </si>
+  <si>
+    <t>f-</t>
+  </si>
+  <si>
+    <t>l-</t>
+  </si>
+  <si>
+    <t>user@newtour.com</t>
+  </si>
+  <si>
+    <t>Rajeev gandhi Park, Phase 1, Hinjewadi</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>ph-8888888888</t>
+  </si>
+  <si>
+    <t>PC-411057</t>
+  </si>
+  <si>
+    <t>INDIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,13 +128,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -377,33 +440,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A16:B17"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -411,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -422,18 +545,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
